--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>NP</t>
   </si>
@@ -538,11 +538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81127296"/>
-        <c:axId val="81132544"/>
+        <c:axId val="68829952"/>
+        <c:axId val="68832256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81127296"/>
+        <c:axId val="68829952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,14 +573,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81132544"/>
+        <c:crossAx val="68832256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81132544"/>
+        <c:axId val="68832256"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -590,7 +590,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81127296"/>
+        <c:crossAx val="68829952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,7 +603,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1014,11 +1014,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81131008"/>
-        <c:axId val="81991168"/>
+        <c:axId val="68754048"/>
+        <c:axId val="68764416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81131008"/>
+        <c:axId val="68754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,14 +1049,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81991168"/>
+        <c:crossAx val="68764416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81991168"/>
+        <c:axId val="68764416"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1066,7 +1066,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81131008"/>
+        <c:crossAx val="68754048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,7 +1079,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1187,13 +1187,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
-        <c:axId val="65576320"/>
-        <c:axId val="65809024"/>
+        <c:axId val="68780416"/>
+        <c:axId val="68782336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65576320"/>
+        <c:axId val="68780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1222,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65809024"/>
+        <c:crossAx val="68782336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65809024"/>
+        <c:axId val="68782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1255,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65576320"/>
+        <c:crossAx val="68780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,7 +1264,713 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="12"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribuição dos Dados (25%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$D$29:$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[10,128)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[128,256)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[256,384)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[384,512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[512,640)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[640,768)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[768,896)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[896,1024]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$29:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:axId val="68897024"/>
+        <c:axId val="68907392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68897024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamanho dos Dados (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68907392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68907392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jobs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68897024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="12"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribuição dos Dados (50%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$F$29:$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[10,128)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[128,256)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[256,384)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[384,512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[512,640)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[640,768)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[768,896)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[896,1024]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$29:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:axId val="68940160"/>
+        <c:axId val="68942080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68940160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamanho dos Dados (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68942080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68942080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jobs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68940160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="12"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribuição dos Dados</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (75%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$B$59:$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[10,128)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[128,256)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[256,384)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[384,512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[512,640)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[640,768)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[768,896)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[896,1024]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$59:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:axId val="69093632"/>
+        <c:axId val="69124480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69093632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamanho dos Dados (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69124480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69124480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jobs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69093632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="12"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distribuição dos Dados (90%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$D$59:$D$66</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>[10,128)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[128,256)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[256,384)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[384,512)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[512,640)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[640,768)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[768,896)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[896,1024]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$59:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:axId val="69149056"/>
+        <c:axId val="69150976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69149056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> dos Dados (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69150976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69150976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Jobs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69149056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1335,16 +2040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1358,6 +2063,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1651,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N36"/>
+  <dimension ref="B1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1936,17 +2761,11 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>25</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>50</v>
-      </c>
-      <c r="F28">
-        <v>75</v>
-      </c>
-      <c r="G28">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -1956,19 +2775,18 @@
       <c r="C29" s="3">
         <v>11370</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
         <v>11651</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
         <v>11394</v>
       </c>
-      <c r="F29" s="3">
-        <v>11415</v>
-      </c>
-      <c r="G29" s="3">
-        <v>11442</v>
-      </c>
-      <c r="H29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10">
@@ -1978,19 +2796,18 @@
       <c r="C30" s="3">
         <v>13271</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
         <v>13050</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
         <v>12841</v>
       </c>
-      <c r="F30" s="3">
-        <v>12632</v>
-      </c>
-      <c r="G30" s="3">
-        <v>12890</v>
-      </c>
-      <c r="H30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10">
@@ -2000,19 +2817,18 @@
       <c r="C31" s="3">
         <v>12702</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3">
         <v>12509</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
         <v>12432</v>
       </c>
-      <c r="F31" s="3">
-        <v>13234</v>
-      </c>
-      <c r="G31" s="3">
-        <v>12335</v>
-      </c>
-      <c r="H31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10">
@@ -2022,19 +2838,18 @@
       <c r="C32" s="3">
         <v>12755</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
         <v>12827</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
         <v>12497</v>
       </c>
-      <c r="F32" s="3">
-        <v>12186</v>
-      </c>
-      <c r="G32" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10">
@@ -2044,19 +2859,18 @@
       <c r="C33" s="3">
         <v>12618</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3">
         <v>12568</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3">
         <v>12588</v>
       </c>
-      <c r="F33" s="3">
-        <v>12804</v>
-      </c>
-      <c r="G33" s="3">
-        <v>12577</v>
-      </c>
-      <c r="H33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10">
@@ -2066,19 +2880,18 @@
       <c r="C34" s="3">
         <v>12083</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3">
         <v>12270</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3">
         <v>12587</v>
       </c>
-      <c r="F34" s="3">
-        <v>12837</v>
-      </c>
-      <c r="G34" s="3">
-        <v>12938</v>
-      </c>
-      <c r="H34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
@@ -2088,19 +2901,18 @@
       <c r="C35" s="3">
         <v>13093</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3">
         <v>12646</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
         <v>13000</v>
       </c>
-      <c r="F35" s="3">
-        <v>12306</v>
-      </c>
-      <c r="G35" s="3">
-        <v>12606</v>
-      </c>
-      <c r="H35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10">
@@ -2110,20 +2922,139 @@
       <c r="C36" s="3">
         <v>12108</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3">
         <v>12479</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3">
         <v>12661</v>
       </c>
-      <c r="F36" s="3">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="C58">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
+        <v>11415</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3">
+        <v>12632</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3">
+        <v>13234</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3">
+        <v>12186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3">
+        <v>12804</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>12577</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="3">
+        <v>12837</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3">
+        <v>12306</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3">
+        <v>12606</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3">
         <v>12586</v>
       </c>
-      <c r="G36" s="3">
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3">
         <v>12412</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="J36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -144,7 +144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -538,11 +538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68829952"/>
-        <c:axId val="68832256"/>
+        <c:axId val="67089536"/>
+        <c:axId val="67091840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68829952"/>
+        <c:axId val="67089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +555,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -573,14 +573,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68832256"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67091840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68832256"/>
+        <c:axId val="67091840"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -590,7 +600,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68829952"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67089536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -598,12 +618,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -611,7 +641,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -620,7 +650,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -762,134 +792,8 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2548</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2557</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2530</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2509</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4807</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Plan1!$B$7</c:f>
@@ -901,6 +805,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Plan1!$C$2:$G$2</c:f>
@@ -950,75 +874,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$C$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2530</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2509</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2062</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68754048"/>
-        <c:axId val="68764416"/>
+        <c:axId val="66763776"/>
+        <c:axId val="66770048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68754048"/>
+        <c:axId val="66763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +892,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1049,14 +910,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68764416"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66770048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68764416"/>
+        <c:axId val="66770048"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1066,7 +937,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68754048"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,12 +955,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1087,7 +978,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1097,7 +988,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1188,11 +1079,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="68780416"/>
-        <c:axId val="68782336"/>
+        <c:axId val="67257088"/>
+        <c:axId val="67259008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68780416"/>
+        <c:axId val="67257088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1095,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1222,14 +1113,24 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68782336"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67259008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68782336"/>
+        <c:axId val="67259008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1142,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" i="0"/>
@@ -1255,7 +1156,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68780416"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67257088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1264,7 +1175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1272,7 +1183,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1282,7 +1193,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1368,11 +1279,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="68897024"/>
-        <c:axId val="68907392"/>
+        <c:axId val="67291392"/>
+        <c:axId val="67305856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68897024"/>
+        <c:axId val="67291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1295,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1397,14 +1308,24 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68907392"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67305856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68907392"/>
+        <c:axId val="67305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1337,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1429,7 +1350,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68897024"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67291392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1438,7 +1369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1446,7 +1377,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1456,7 +1387,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1542,11 +1473,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="68940160"/>
-        <c:axId val="68942080"/>
+        <c:axId val="67330048"/>
+        <c:axId val="67331968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68940160"/>
+        <c:axId val="67330048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1489,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1571,14 +1502,24 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68942080"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67331968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68942080"/>
+        <c:axId val="67331968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1531,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1603,7 +1544,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68940160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67330048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,7 +1563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1620,7 +1571,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1630,7 +1581,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1721,11 +1672,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="69093632"/>
-        <c:axId val="69124480"/>
+        <c:axId val="67360256"/>
+        <c:axId val="67362176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69093632"/>
+        <c:axId val="67360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1688,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1750,14 +1701,24 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69124480"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67362176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69124480"/>
+        <c:axId val="67362176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1730,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1782,7 +1743,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69093632"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67360256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,7 +1762,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1799,7 +1770,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1809,7 +1780,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1895,11 +1866,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="69149056"/>
-        <c:axId val="69150976"/>
+        <c:axId val="67595264"/>
+        <c:axId val="67605632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69149056"/>
+        <c:axId val="67595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1882,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1929,14 +1900,24 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69150976"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67605632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69150976"/>
+        <c:axId val="67605632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1929,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -1961,7 +1942,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69149056"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67595264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1970,7 +1961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2478,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>NP</t>
   </si>
@@ -135,7 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -538,11 +538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67089536"/>
-        <c:axId val="67091840"/>
+        <c:axId val="60901248"/>
+        <c:axId val="60920192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67089536"/>
+        <c:axId val="60901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,17 +580,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67091840"/>
+        <c:crossAx val="60920192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67091840"/>
+        <c:axId val="60920192"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -607,10 +607,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67089536"/>
+        <c:crossAx val="60901248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,7 +625,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -633,7 +633,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -641,7 +641,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -875,11 +875,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66763776"/>
-        <c:axId val="66770048"/>
+        <c:axId val="60966016"/>
+        <c:axId val="60968320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66763776"/>
+        <c:axId val="60966016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,17 +917,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66770048"/>
+        <c:crossAx val="60968320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66770048"/>
+        <c:axId val="60968320"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -944,10 +944,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66763776"/>
+        <c:crossAx val="60966016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -962,7 +962,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -970,7 +970,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -978,7 +978,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1079,11 +1079,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="67257088"/>
-        <c:axId val="67259008"/>
+        <c:axId val="60984320"/>
+        <c:axId val="61002880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67257088"/>
+        <c:axId val="60984320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,17 +1120,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67259008"/>
+        <c:crossAx val="61002880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67259008"/>
+        <c:axId val="61002880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,10 +1163,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67257088"/>
+        <c:crossAx val="60984320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,7 +1175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1183,7 +1183,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1279,11 +1279,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="67291392"/>
-        <c:axId val="67305856"/>
+        <c:axId val="60850944"/>
+        <c:axId val="60852864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67291392"/>
+        <c:axId val="60850944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,17 +1315,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67305856"/>
+        <c:crossAx val="60852864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67305856"/>
+        <c:axId val="60852864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,10 +1357,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67291392"/>
+        <c:crossAx val="60850944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,7 +1369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1377,7 +1377,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1473,11 +1473,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="67330048"/>
-        <c:axId val="67331968"/>
+        <c:axId val="60877056"/>
+        <c:axId val="61149568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67330048"/>
+        <c:axId val="60877056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,17 +1509,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67331968"/>
+        <c:crossAx val="61149568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67331968"/>
+        <c:axId val="61149568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,10 +1551,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67330048"/>
+        <c:crossAx val="60877056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1571,7 +1571,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1672,11 +1672,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="67360256"/>
-        <c:axId val="67362176"/>
+        <c:axId val="61190144"/>
+        <c:axId val="61192064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67360256"/>
+        <c:axId val="61190144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,17 +1708,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67362176"/>
+        <c:crossAx val="61192064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67362176"/>
+        <c:axId val="61192064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67360256"/>
+        <c:crossAx val="61190144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,7 +1762,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1770,7 +1770,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1866,11 +1866,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="67595264"/>
-        <c:axId val="67605632"/>
+        <c:axId val="61281792"/>
+        <c:axId val="61283712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67595264"/>
+        <c:axId val="61281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,17 +1907,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67605632"/>
+        <c:crossAx val="61283712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67605632"/>
+        <c:axId val="61283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,10 +1949,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67595264"/>
+        <c:crossAx val="61281792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,7 +1961,367 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$72:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>5765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$73:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>2908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$74:$G$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>2908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$75:$G$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>2118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$76:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>2118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$C$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$77:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>2118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="64407424"/>
+        <c:axId val="75191040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64407424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75191040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75191040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64407424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2174,6 +2534,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2467,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N66"/>
+  <dimension ref="B1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3019,7 +3409,7 @@
         <v>12938</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:7">
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3423,7 @@
         <v>12606</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:7">
       <c r="B66" t="s">
         <v>16</v>
       </c>
@@ -3045,6 +3435,100 @@
       </c>
       <c r="E66" s="3">
         <v>12412</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1">
+        <v>50</v>
+      </c>
+      <c r="F71" s="1">
+        <v>75</v>
+      </c>
+      <c r="G71" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -135,7 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -538,11 +538,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60901248"/>
-        <c:axId val="60920192"/>
+        <c:axId val="58239232"/>
+        <c:axId val="58254080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60901248"/>
+        <c:axId val="58239232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,17 +580,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60920192"/>
+        <c:crossAx val="58254080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60920192"/>
+        <c:axId val="58254080"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -607,10 +607,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60901248"/>
+        <c:crossAx val="58239232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,7 +625,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -633,7 +633,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -641,7 +641,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -875,11 +875,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60966016"/>
-        <c:axId val="60968320"/>
+        <c:axId val="58582528"/>
+        <c:axId val="58724352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60966016"/>
+        <c:axId val="58582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,17 +917,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60968320"/>
+        <c:crossAx val="58724352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60968320"/>
+        <c:axId val="58724352"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -944,10 +944,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60966016"/>
+        <c:crossAx val="58582528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -962,7 +962,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -970,7 +970,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -978,7 +978,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1079,11 +1079,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="60984320"/>
-        <c:axId val="61002880"/>
+        <c:axId val="58736000"/>
+        <c:axId val="58750464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60984320"/>
+        <c:axId val="58736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,17 +1120,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61002880"/>
+        <c:crossAx val="58750464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61002880"/>
+        <c:axId val="58750464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,10 +1163,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60984320"/>
+        <c:crossAx val="58736000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,7 +1175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1183,7 +1183,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1279,11 +1279,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="60850944"/>
-        <c:axId val="60852864"/>
+        <c:axId val="58778752"/>
+        <c:axId val="58780672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60850944"/>
+        <c:axId val="58778752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,17 +1315,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60852864"/>
+        <c:crossAx val="58780672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60852864"/>
+        <c:axId val="58780672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,10 +1357,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60850944"/>
+        <c:crossAx val="58778752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,7 +1369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1377,7 +1377,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1473,11 +1473,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="60877056"/>
-        <c:axId val="61149568"/>
+        <c:axId val="58804864"/>
+        <c:axId val="58827520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60877056"/>
+        <c:axId val="58804864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,17 +1509,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61149568"/>
+        <c:crossAx val="58827520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61149568"/>
+        <c:axId val="58827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,10 +1551,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60877056"/>
+        <c:crossAx val="58804864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1563,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1571,7 +1571,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1672,11 +1672,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="61190144"/>
-        <c:axId val="61192064"/>
+        <c:axId val="58995072"/>
+        <c:axId val="58996992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61190144"/>
+        <c:axId val="58995072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,17 +1708,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61192064"/>
+        <c:crossAx val="58996992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61192064"/>
+        <c:axId val="58996992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1750,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61190144"/>
+        <c:crossAx val="58995072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,7 +1762,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1770,7 +1770,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1866,11 +1866,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="61281792"/>
-        <c:axId val="61283712"/>
+        <c:axId val="59029376"/>
+        <c:axId val="59031552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61281792"/>
+        <c:axId val="59029376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,17 +1907,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61283712"/>
+        <c:crossAx val="59031552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61283712"/>
+        <c:axId val="59031552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,10 +1949,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61281792"/>
+        <c:crossAx val="59029376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,7 +1961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1969,8 +1969,31 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Média do</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Tempo de Execução Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1989,6 +2012,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Plan1!$C$71:$G$71</c:f>
@@ -2019,6 +2067,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>5918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5852</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>5765</c:v>
                 </c:pt>
@@ -2027,15 +2084,15 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$B$73</c:f>
+              <c:f>Plan1!$B$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LI</c:v>
+                  <c:v>LF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2066,114 +2123,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$73:$G$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>2908</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$74</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$71:$G$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Plan1!$C$74:$G$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>5119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3411</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>2908</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$75</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$71:$G$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$C$75:$G$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>2118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2145,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Plan1!$B$76</c:f>
@@ -2193,6 +2157,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Plan1!$C$71:$G$71</c:f>
@@ -2223,57 +2207,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="4">
-                  <c:v>2118</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$B$77</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Plan1!$C$71:$G$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>4908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>3838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Plan1!$C$77:$G$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>2754</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>2118</c:v>
                 </c:pt>
@@ -2282,46 +2224,102 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64407424"/>
-        <c:axId val="75191040"/>
+        <c:axId val="59058432"/>
+        <c:axId val="59076608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64407424"/>
+        <c:axId val="59058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>% de Reuso dos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> Dados</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75191040"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59076608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75191040"/>
+        <c:axId val="59076608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64407424"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59058432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2542,15 +2540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2859,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3464,9 +3462,15 @@
         <v>0</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="D72" s="1">
+        <v>5918</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5924</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5852</v>
+      </c>
       <c r="G72" s="1">
         <v>5765</v>
       </c>
@@ -3476,9 +3480,15 @@
         <v>2</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="D73" s="1">
+        <v>5119</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4264</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3411</v>
+      </c>
       <c r="G73" s="1">
         <v>2908</v>
       </c>
@@ -3488,9 +3498,15 @@
         <v>1</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="D74" s="1">
+        <v>5119</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4264</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3411</v>
+      </c>
       <c r="G74" s="1">
         <v>2908</v>
       </c>
@@ -3500,9 +3516,15 @@
         <v>5</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="D75" s="1">
+        <v>4908</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2754</v>
+      </c>
       <c r="G75" s="1">
         <v>2118</v>
       </c>
@@ -3512,9 +3534,15 @@
         <v>3</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="D76" s="1">
+        <v>4908</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2754</v>
+      </c>
       <c r="G76" s="1">
         <v>2118</v>
       </c>
@@ -3524,9 +3552,15 @@
         <v>6</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="D77" s="1">
+        <v>4908</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2754</v>
+      </c>
       <c r="G77" s="1">
         <v>2118</v>
       </c>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -135,7 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -153,7 +153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -538,11 +537,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58239232"/>
-        <c:axId val="58254080"/>
+        <c:axId val="60442496"/>
+        <c:axId val="60461440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58239232"/>
+        <c:axId val="60442496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -580,17 +578,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58254080"/>
+        <c:crossAx val="60461440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58254080"/>
+        <c:axId val="60461440"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -607,17 +605,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58239232"/>
+        <c:crossAx val="60442496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -625,7 +622,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -633,7 +630,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -641,7 +638,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -659,7 +656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -875,11 +871,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58582528"/>
-        <c:axId val="58724352"/>
+        <c:axId val="60507264"/>
+        <c:axId val="60509568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58582528"/>
+        <c:axId val="60507264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +902,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -917,17 +912,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58724352"/>
+        <c:crossAx val="60509568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58724352"/>
+        <c:axId val="60509568"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -944,17 +939,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58582528"/>
+        <c:crossAx val="60507264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -962,7 +956,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -970,7 +964,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -978,7 +972,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1002,7 +996,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1079,11 +1072,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="58736000"/>
-        <c:axId val="58750464"/>
+        <c:axId val="60525568"/>
+        <c:axId val="60540032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58736000"/>
+        <c:axId val="60525568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1120,17 +1112,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58750464"/>
+        <c:crossAx val="60540032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58750464"/>
+        <c:axId val="60540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1144,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1163,10 +1154,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58736000"/>
+        <c:crossAx val="60525568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,7 +1166,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1183,7 +1174,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1202,7 +1193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1279,11 +1269,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="58778752"/>
-        <c:axId val="58780672"/>
+        <c:axId val="60392192"/>
+        <c:axId val="60394112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58778752"/>
+        <c:axId val="60392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1294,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1315,17 +1304,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58780672"/>
+        <c:crossAx val="60394112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58780672"/>
+        <c:axId val="60394112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1357,10 +1345,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58778752"/>
+        <c:crossAx val="60392192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,7 +1357,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1377,7 +1365,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1473,11 +1461,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="58804864"/>
-        <c:axId val="58827520"/>
+        <c:axId val="60414208"/>
+        <c:axId val="60686720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58804864"/>
+        <c:axId val="60414208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,17 +1497,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58827520"/>
+        <c:crossAx val="60686720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58827520"/>
+        <c:axId val="60686720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,10 +1539,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58804864"/>
+        <c:crossAx val="60414208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +1551,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1571,7 +1559,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1672,11 +1660,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="58995072"/>
-        <c:axId val="58996992"/>
+        <c:axId val="60731392"/>
+        <c:axId val="60733312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58995072"/>
+        <c:axId val="60731392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,17 +1696,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58996992"/>
+        <c:crossAx val="60733312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58996992"/>
+        <c:axId val="60733312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,10 +1738,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58995072"/>
+        <c:crossAx val="60731392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,7 +1750,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1770,7 +1758,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1866,11 +1854,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59029376"/>
-        <c:axId val="59031552"/>
+        <c:axId val="60749312"/>
+        <c:axId val="60751232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59029376"/>
+        <c:axId val="60749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,17 +1895,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59031552"/>
+        <c:crossAx val="60751232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59031552"/>
+        <c:axId val="60751232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,10 +1937,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59029376"/>
+        <c:crossAx val="60749312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,7 +1949,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000036" footer="0.31496062000000036"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1969,7 +1957,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1978,7 +1966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="pt-BR"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
@@ -2067,6 +2055,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5936</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>5918</c:v>
                 </c:pt>
@@ -2127,6 +2118,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5642</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>5119</c:v>
                 </c:pt>
@@ -2207,6 +2201,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5557</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>4908</c:v>
                 </c:pt>
@@ -2224,11 +2221,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59058432"/>
-        <c:axId val="59076608"/>
+        <c:axId val="60801408"/>
+        <c:axId val="60803712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59058432"/>
+        <c:axId val="60801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2238,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="pt-BR"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
@@ -2266,17 +2263,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59076608"/>
+        <c:crossAx val="60803712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59076608"/>
+        <c:axId val="60803712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
@@ -2292,10 +2289,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59058432"/>
+        <c:crossAx val="60801408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -2311,7 +2308,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2319,7 +2316,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2857,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3461,7 +3458,9 @@
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1">
+        <v>5936</v>
+      </c>
       <c r="D72" s="1">
         <v>5918</v>
       </c>
@@ -3479,7 +3478,9 @@
       <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1">
+        <v>5642</v>
+      </c>
       <c r="D73" s="1">
         <v>5119</v>
       </c>
@@ -3497,7 +3498,9 @@
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1">
+        <v>5642</v>
+      </c>
       <c r="D74" s="1">
         <v>5119</v>
       </c>
@@ -3515,7 +3518,9 @@
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1">
+        <v>5557</v>
+      </c>
       <c r="D75" s="1">
         <v>4908</v>
       </c>
@@ -3533,7 +3538,9 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1">
+        <v>5557</v>
+      </c>
       <c r="D76" s="1">
         <v>4908</v>
       </c>
@@ -3551,7 +3558,9 @@
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1">
+        <v>5557</v>
+      </c>
       <c r="D77" s="1">
         <v>4908</v>
       </c>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="Exclusion" sheetId="2" r:id="rId2"/>
     <sheet name="Quota" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -217,7 +217,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -241,7 +241,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -318,11 +317,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59252096"/>
-        <c:axId val="59278848"/>
+        <c:axId val="68357120"/>
+        <c:axId val="79869440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59252096"/>
+        <c:axId val="68357120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +347,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -359,17 +357,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59278848"/>
+        <c:crossAx val="79869440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59278848"/>
+        <c:axId val="79869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +389,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -402,10 +399,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59252096"/>
+        <c:crossAx val="68357120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -414,7 +411,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000052" footer="0.31496062000000052"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -422,7 +419,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -441,7 +438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -518,11 +514,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59303040"/>
-        <c:axId val="59304960"/>
+        <c:axId val="79897728"/>
+        <c:axId val="79899648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59303040"/>
+        <c:axId val="79897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +539,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -554,17 +549,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59304960"/>
+        <c:crossAx val="79899648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59304960"/>
+        <c:axId val="79899648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +580,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -596,10 +590,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59303040"/>
+        <c:crossAx val="79897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -608,7 +602,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -616,7 +610,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -635,7 +629,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -712,11 +705,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59325056"/>
-        <c:axId val="59343616"/>
+        <c:axId val="79907456"/>
+        <c:axId val="79930112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59325056"/>
+        <c:axId val="79907456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +730,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -748,17 +740,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59343616"/>
+        <c:crossAx val="79930112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59343616"/>
+        <c:axId val="79930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +771,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -790,10 +781,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59325056"/>
+        <c:crossAx val="79907456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -802,7 +793,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -810,7 +801,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -834,7 +825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -911,11 +901,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59519360"/>
-        <c:axId val="59521280"/>
+        <c:axId val="81863040"/>
+        <c:axId val="81864960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59519360"/>
+        <c:axId val="81863040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -947,17 +936,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59521280"/>
+        <c:crossAx val="81864960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59521280"/>
+        <c:axId val="81864960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -989,10 +977,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59519360"/>
+        <c:crossAx val="81863040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +989,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1009,7 +997,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:style val="12"/>
   <c:chart>
     <c:title>
@@ -1028,7 +1016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1105,11 +1092,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="59553664"/>
-        <c:axId val="59555840"/>
+        <c:axId val="81893248"/>
+        <c:axId val="81895424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59553664"/>
+        <c:axId val="81893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1122,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1146,17 +1132,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59555840"/>
+        <c:crossAx val="81895424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59555840"/>
+        <c:axId val="81895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1188,10 +1173,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59553664"/>
+        <c:crossAx val="81893248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,7 +1185,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000047" footer="0.31496062000000047"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1208,7 +1193,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1231,7 +1216,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1474,11 +1458,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46380160"/>
-        <c:axId val="46387200"/>
+        <c:axId val="82044032"/>
+        <c:axId val="82046336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46380160"/>
+        <c:axId val="82044032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1516,17 +1499,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46387200"/>
+        <c:crossAx val="82046336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46387200"/>
+        <c:axId val="82046336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
@@ -1542,10 +1525,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46380160"/>
+        <c:crossAx val="82044032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -1553,7 +1536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1561,7 +1543,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1569,7 +1551,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000041" footer="0.31496062000000041"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1577,7 +1559,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1586,7 +1568,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="pt-BR"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
@@ -1670,21 +1652,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5936</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5918</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5852</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5765</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1755,19 +1722,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5936</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4200</c:v>
+                  <c:v>5942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2112</c:v>
+                  <c:v>5305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,30 +1807,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5642</c:v>
+                  <c:v>5944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5119</c:v>
+                  <c:v>5895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4264</c:v>
+                  <c:v>5788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2763</c:v>
+                  <c:v>5583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2112</c:v>
+                  <c:v>5294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74804224"/>
-        <c:axId val="59647104"/>
+        <c:axId val="82031360"/>
+        <c:axId val="82033664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74804224"/>
+        <c:axId val="82031360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1843,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="pt-BR"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
@@ -1898,14 +1856,24 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59647104"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82033664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59647104"/>
+        <c:axId val="82033664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1881,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74804224"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-BR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82031360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,12 +1899,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2953,7 +2941,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2984,40 +2972,24 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
-        <v>5936</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5918</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5924</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5852</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5765</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>5936</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5450</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4200</v>
-      </c>
+        <v>5942</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>2112</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -3025,19 +2997,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>5642</v>
+        <v>5944</v>
       </c>
       <c r="D6" s="1">
-        <v>5119</v>
+        <v>5895</v>
       </c>
       <c r="E6" s="1">
-        <v>4264</v>
+        <v>5788</v>
       </c>
       <c r="F6" s="1">
-        <v>2763</v>
+        <v>5583</v>
       </c>
       <c r="G6" s="1">
-        <v>2112</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="7" spans="2:7">

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>NP</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>EQ</t>
+  </si>
+  <si>
+    <t>TOTAL RUN TIME</t>
+  </si>
+  <si>
+    <t>Estático</t>
+  </si>
+  <si>
+    <t>Elástico</t>
+  </si>
+  <si>
+    <t>Elástica</t>
+  </si>
+  <si>
+    <t>Estática</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -205,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,11 +335,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="68357120"/>
-        <c:axId val="79869440"/>
+        <c:axId val="59725696"/>
+        <c:axId val="59732352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68357120"/>
+        <c:axId val="59725696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,14 +378,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79869440"/>
+        <c:crossAx val="59732352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79869440"/>
+        <c:axId val="59732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68357120"/>
+        <c:crossAx val="59725696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -411,7 +429,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -514,11 +532,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="79897728"/>
-        <c:axId val="79899648"/>
+        <c:axId val="59756544"/>
+        <c:axId val="59758464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79897728"/>
+        <c:axId val="59756544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,14 +570,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79899648"/>
+        <c:crossAx val="59758464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79899648"/>
+        <c:axId val="59758464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79897728"/>
+        <c:crossAx val="59756544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,7 +620,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -705,11 +723,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="79907456"/>
-        <c:axId val="79930112"/>
+        <c:axId val="59926016"/>
+        <c:axId val="59927936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79907456"/>
+        <c:axId val="59926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,14 +761,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79930112"/>
+        <c:crossAx val="59927936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79930112"/>
+        <c:axId val="59927936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79907456"/>
+        <c:crossAx val="59926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -793,7 +811,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -901,11 +919,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="81863040"/>
-        <c:axId val="81864960"/>
+        <c:axId val="59948032"/>
+        <c:axId val="59962496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81863040"/>
+        <c:axId val="59948032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,14 +957,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81864960"/>
+        <c:crossAx val="59962496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81864960"/>
+        <c:axId val="59962496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81863040"/>
+        <c:crossAx val="59948032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,7 +1007,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1092,11 +1110,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="81893248"/>
-        <c:axId val="81895424"/>
+        <c:axId val="59990784"/>
+        <c:axId val="59992704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81893248"/>
+        <c:axId val="59990784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1153,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81895424"/>
+        <c:crossAx val="59992704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81895424"/>
+        <c:axId val="59992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81893248"/>
+        <c:crossAx val="59990784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1203,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1458,11 +1476,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82044032"/>
-        <c:axId val="82046336"/>
+        <c:axId val="60108800"/>
+        <c:axId val="60111104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82044032"/>
+        <c:axId val="60108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,14 +1520,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82046336"/>
+        <c:crossAx val="60111104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82046336"/>
+        <c:axId val="60111104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
@@ -1528,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82044032"/>
+        <c:crossAx val="60108800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -1551,7 +1569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000058" footer="0.31496062000000058"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1560,6 +1578,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="27"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1568,11 +1587,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="pt-BR"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Média do Tempo de Execução Total</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Média</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> do Tempo de Execução Total</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1581,77 +1604,38 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quota!$B$4</c:f>
+              <c:f>Quota!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NQ</c:v>
+                  <c:v>Estática</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Quota!$C$3:$G$3</c:f>
+              <c:f>Quota!$C$19:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>2974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Quota!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                  <c:v>2568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1661,260 +1645,261 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quota!$B$5</c:f>
+              <c:f>Quota!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SQ</c:v>
+                  <c:v>Elástica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Quota!$C$3:$G$3</c:f>
+              <c:f>Quota!$C$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>2840</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Quota!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5305</c:v>
+                  <c:v>2469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Quota!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT/>
-              </a:sp3d>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Quota!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Quota!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5944</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5788</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5294</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="82031360"/>
-        <c:axId val="82033664"/>
-      </c:lineChart>
+        <c:dLbls/>
+        <c:axId val="63132800"/>
+        <c:axId val="63134336"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="82031360"/>
+        <c:axId val="63132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-BR"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>% de Reuso dos Dados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="pt-BR"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82033664"/>
+        <c:crossAx val="63134336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82033664"/>
+        <c:axId val="63134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="2300"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
+        <c:crossAx val="63132800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="29"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="pt-BR"/>
+              <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Média do Tempo de Espera</a:t>
+            </a:r>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="82031360"/>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quota!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estática</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Quota!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quota!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quota!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elástica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Quota!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quota!$C$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="60936576"/>
+        <c:axId val="60938496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60936576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60938496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60938496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60936576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="pt-BR"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2115,19 +2100,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2137,6 +2122,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2938,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3036,8 +3051,115 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2516</v>
+      </c>
+      <c r="D19">
+        <v>2974</v>
+      </c>
+      <c r="E19">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>2516</v>
+      </c>
+      <c r="D20">
+        <v>2840</v>
+      </c>
+      <c r="E20">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4528</v>
+      </c>
+      <c r="D23">
+        <v>6250</v>
+      </c>
+      <c r="E23">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4528</v>
+      </c>
+      <c r="D24">
+        <v>6100</v>
+      </c>
+      <c r="E24">
+        <v>3730</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="1" r:id="rId1"/>
     <sheet name="Exclusion" sheetId="2" r:id="rId2"/>
     <sheet name="Quota" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>NP</t>
   </si>
@@ -42,30 +42,6 @@
     <t>DATABASE</t>
   </si>
   <si>
-    <t>[10,128)</t>
-  </si>
-  <si>
-    <t>[128,256)</t>
-  </si>
-  <si>
-    <t>[256,384)</t>
-  </si>
-  <si>
-    <t>[384,512)</t>
-  </si>
-  <si>
-    <t>[512,640)</t>
-  </si>
-  <si>
-    <t>[640,768)</t>
-  </si>
-  <si>
-    <t>[768,896)</t>
-  </si>
-  <si>
-    <t>[896,1024]</t>
-  </si>
-  <si>
     <t>NQ</t>
   </si>
   <si>
@@ -89,6 +65,18 @@
   <si>
     <t>Estática</t>
   </si>
+  <si>
+    <t>[10,256)</t>
+  </si>
+  <si>
+    <t>[256,512)</t>
+  </si>
+  <si>
+    <t>[512,768)</t>
+  </si>
+  <si>
+    <t>[768,1024)</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,73 +122,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -208,22 +134,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,8 +158,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="12"/>
+  <c:lang val="pt-BR"/>
+  <c:style val="28"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -245,20 +168,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Distribuição dos</a:t>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Distribuição dos Dados</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Dados (10%)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -268,168 +187,300 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:cat>
+          <c:tx>
             <c:strRef>
-              <c:f>'Input Data'!$B$4:$B$11</c:f>
+              <c:f>'Input Data'!$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>[10,128)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[128,256)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[256,384)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[384,512)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[512,640)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[640,768)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[768,896)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[896,1024]</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[10,256)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Input Data'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Input Data'!$C$4:$C$11</c:f>
+              <c:f>'Input Data'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11370</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13271</c:v>
+                  <c:v>24701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12702</c:v>
+                  <c:v>24235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12755</c:v>
+                  <c:v>24047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12083</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12108</c:v>
+                  <c:v>24332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="0"/>
-        <c:axId val="59725696"/>
-        <c:axId val="59732352"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Input Data'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[256,512)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Input Data'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Input Data'!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Input Data'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[512,768)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Input Data'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Input Data'!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Input Data'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[768,1024)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Input Data'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Input Data'!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="84101760"/>
+        <c:axId val="84144512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59725696"/>
+        <c:axId val="84101760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> dos Dados (MB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59732352"/>
+        <c:crossAx val="84144512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59732352"/>
+        <c:axId val="84144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" i="0"/>
-                  <a:t>Jobs</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59725696"/>
+        <c:crossAx val="84101760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -437,781 +488,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="12"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Distribuição dos Dados (25%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Input Data'!$D$4:$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>[10,128)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[128,256)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[256,384)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[384,512)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[512,640)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[640,768)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[768,896)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[896,1024]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Input Data'!$E$4:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11651</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13050</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12270</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12646</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:axId val="59756544"/>
-        <c:axId val="59758464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="59756544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho dos Dados (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59758464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59758464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Jobs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59756544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="12"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Distribuição dos Dados (50%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Input Data'!$F$4:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>[10,128)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[128,256)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[256,384)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[384,512)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[512,640)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[640,768)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[768,896)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[896,1024]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Input Data'!$G$4:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11394</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12841</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12497</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12588</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12587</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12661</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:axId val="59926016"/>
-        <c:axId val="59927936"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="59926016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho dos Dados (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59927936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59927936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Jobs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59926016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="12"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Distribuição dos Dados</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (75%)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Input Data'!$H$4:$H$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>[10,128)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[128,256)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[256,384)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[384,512)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[512,640)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[640,768)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[768,896)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[896,1024]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Input Data'!$I$4:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11415</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12632</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12186</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12837</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12306</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:axId val="59948032"/>
-        <c:axId val="59962496"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="59948032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho dos Dados (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59962496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59962496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Jobs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59948032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="12"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Distribuição dos Dados (90%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Input Data'!$J$4:$J$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>[10,128)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[128,256)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[256,384)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>[384,512)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>[512,640)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>[640,768)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>[768,896)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>[896,1024]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Input Data'!$K$4:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12890</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12577</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12938</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12606</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12412</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:axId val="59990784"/>
-        <c:axId val="59992704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="59990784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tamanho</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> dos Dados (MB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59992704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59992704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Jobs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59990784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1228,12 +505,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Tempo de Execução Total</a:t>
+              <a:t> Tempo de Execução</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1282,22 +560,22 @@
             <c:numRef>
               <c:f>Exclusion!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,22 +623,22 @@
             <c:numRef>
               <c:f>Exclusion!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,22 +708,22 @@
             <c:numRef>
               <c:f>Exclusion!$C$3:$G$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,40 +753,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="60108800"/>
-        <c:axId val="60111104"/>
+        <c:axId val="67932544"/>
+        <c:axId val="67934848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60108800"/>
+        <c:axId val="67932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="pt-BR"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>% de Reuso dos</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> Dados</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1517,24 +774,28 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60111104"/>
+        <c:crossAx val="67934848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60111104"/>
+        <c:axId val="67934848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1543,41 +804,34 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60108800"/>
+        <c:crossAx val="67932544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000064" footer="0.31496062000000064"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="27"/>
   <c:chart>
     <c:title>
@@ -1587,7 +841,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1673,26 +927,35 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="63132800"/>
-        <c:axId val="63134336"/>
+        <c:axId val="67918848"/>
+        <c:axId val="68043520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63132800"/>
+        <c:axId val="67918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63134336"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68043520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63134336"/>
+        <c:axId val="68043520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -1703,7 +966,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63132800"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67918848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,21 +985,31 @@
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
       </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:style val="29"/>
   <c:chart>
     <c:title>
@@ -1736,7 +1019,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1854,12 +1137,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="60936576"/>
-        <c:axId val="60938496"/>
+        <c:axId val="68074496"/>
+        <c:axId val="68076288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60936576"/>
+        <c:axId val="68074496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,14 +1149,24 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60938496"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68076288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60938496"/>
+        <c:axId val="68076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1884,7 +1176,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60936576"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68074496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,13 +1195,23 @@
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
       </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1910,19 +1222,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="22" name="Gráfico 21"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1932,126 +1244,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2445,15 +1637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N36"/>
+  <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2463,304 +1655,240 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6">
-        <v>75</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6">
-        <v>90</v>
-      </c>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11">
-        <v>11370</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11">
-        <v>11651</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="11">
-        <v>11394</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="11">
-        <v>11415</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="11">
-        <v>11442</v>
-      </c>
+    <row r="4" spans="1:14">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>24641</v>
+      </c>
+      <c r="D4" s="8">
+        <v>24701</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24235</v>
+      </c>
+      <c r="F4" s="1">
+        <v>24047</v>
+      </c>
+      <c r="G4" s="8">
+        <v>24332</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+    <row r="5" spans="1:14">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="8">
-        <v>13271</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>25457</v>
+      </c>
+      <c r="D5" s="8">
+        <v>25336</v>
       </c>
       <c r="E5" s="8">
-        <v>13050</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>24929</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25420</v>
       </c>
       <c r="G5" s="8">
-        <v>12841</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8">
-        <v>12632</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8">
-        <v>12890</v>
-      </c>
+        <v>25135</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="7" t="s">
-        <v>10</v>
+    <row r="6" spans="1:14">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="8">
-        <v>12702</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>24701</v>
+      </c>
+      <c r="D6" s="8">
+        <v>24838</v>
       </c>
       <c r="E6" s="8">
-        <v>12509</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>25175</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25641</v>
       </c>
       <c r="G6" s="8">
-        <v>12432</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8">
-        <v>13234</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="8">
-        <v>12335</v>
-      </c>
+        <v>25515</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
+    <row r="7" spans="1:14">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="8">
-        <v>12755</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>25201</v>
+      </c>
+      <c r="D7" s="8">
+        <v>25125</v>
       </c>
       <c r="E7" s="8">
-        <v>12827</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>25661</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24892</v>
       </c>
       <c r="G7" s="8">
-        <v>12497</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8">
-        <v>12186</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="8">
-        <v>12800</v>
-      </c>
+        <v>25018</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>12618</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8">
-        <v>12568</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8">
-        <v>12588</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8">
-        <v>12804</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="8">
-        <v>12577</v>
-      </c>
+    <row r="8" spans="1:14">
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8">
-        <v>12083</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8">
-        <v>12270</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8">
-        <v>12587</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8">
-        <v>12837</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="8">
-        <v>12938</v>
-      </c>
+    <row r="9" spans="1:14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8">
-        <v>13093</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8">
-        <v>12646</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8">
-        <v>13000</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8">
-        <v>12306</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="8">
-        <v>12606</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10">
-        <v>12108</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="10">
-        <v>12479</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="10">
-        <v>12661</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="10">
-        <v>12586</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="10">
-        <v>12412</v>
-      </c>
+    <row r="10" spans="1:14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" s="3"/>
@@ -2787,6 +1915,10 @@
       <c r="J36" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2798,7 +1930,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2809,20 +1941,20 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>75</v>
-      </c>
-      <c r="G3" s="1">
-        <v>90</v>
+      <c r="C3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -2955,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2985,7 +2117,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2995,7 +2127,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>5942</v>
@@ -3009,7 +2141,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>5944</v>
@@ -3053,26 +2185,26 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
       <c r="C18">
@@ -3087,7 +2219,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2516</v>
@@ -3101,7 +2233,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>2516</v>
@@ -3126,7 +2258,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>4528</v>
@@ -3140,7 +2272,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>4528</v>

--- a/trunk/DMS-GridSim/workload/result/100000.xlsx
+++ b/trunk/DMS-GridSim/workload/result/100000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15270" windowHeight="8130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>NP</t>
   </si>
@@ -77,6 +77,15 @@
   <si>
     <t>[768,1024)</t>
   </si>
+  <si>
+    <t>Cenário 1</t>
+  </si>
+  <si>
+    <t>Cenário 2</t>
+  </si>
+  <si>
+    <t>Cenário 3</t>
+  </si>
 </sst>
 </file>
 
@@ -134,12 +143,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -147,6 +150,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,12 +445,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="84101760"/>
-        <c:axId val="84144512"/>
+        <c:axId val="66754048"/>
+        <c:axId val="66755584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84101760"/>
+        <c:axId val="66754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,14 +457,14 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84144512"/>
+        <c:crossAx val="66755584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84144512"/>
+        <c:axId val="66755584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +473,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84101760"/>
+        <c:crossAx val="66754048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -480,7 +488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -511,7 +519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -753,13 +760,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="67932544"/>
-        <c:axId val="67934848"/>
+        <c:axId val="67355008"/>
+        <c:axId val="67356544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67932544"/>
+        <c:axId val="67355008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,23 +783,21 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67934848"/>
+        <c:crossAx val="67356544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67934848"/>
+        <c:axId val="67356544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -807,7 +811,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67932544"/>
+        <c:crossAx val="67355008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -823,7 +827,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000075" footer="0.31496062000000075"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000086" footer="0.31496062000000086"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -849,7 +853,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> do Tempo de Execução Total</a:t>
+              <a:t> do Tempo de Execução</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -875,6 +879,23 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quota!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cenário 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cenário 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cenário 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Quota!$C$19:$E$19</c:f>
@@ -908,6 +929,23 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quota!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cenário 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cenário 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cenário 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Quota!$C$20:$E$20</c:f>
@@ -927,15 +965,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67918848"/>
-        <c:axId val="68043520"/>
+        <c:axId val="67260800"/>
+        <c:axId val="67262336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67918848"/>
+        <c:axId val="67260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
@@ -948,14 +987,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68043520"/>
+        <c:crossAx val="67262336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68043520"/>
+        <c:axId val="67262336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000"/>
@@ -976,7 +1015,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67918848"/>
+        <c:crossAx val="67260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1040,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1137,11 +1176,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68074496"/>
-        <c:axId val="68076288"/>
+        <c:axId val="67296640"/>
+        <c:axId val="67507328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68074496"/>
+        <c:axId val="67296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,14 +1198,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68076288"/>
+        <c:crossAx val="67507328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68076288"/>
+        <c:axId val="67507328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1186,7 +1225,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68074496"/>
+        <c:crossAx val="67296640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1211,7 +1250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1639,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1657,19 +1696,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1"/>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.25</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.75</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.9</v>
       </c>
       <c r="H3" s="4"/>
@@ -1684,25 +1723,25 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>24641</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>24701</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>24235</v>
       </c>
       <c r="F4" s="1">
         <v>24047</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>24332</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1711,25 +1750,25 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>25457</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>25336</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>24929</v>
       </c>
       <c r="F5" s="1">
         <v>25420</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>25135</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1738,25 +1777,25 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>24701</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>24838</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>25175</v>
       </c>
       <c r="F6" s="1">
         <v>25641</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>25515</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1765,93 +1804,93 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>25201</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>25125</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>25661</v>
       </c>
       <c r="F7" s="1">
         <v>24892</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>25018</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14">
@@ -1868,22 +1907,22 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1941,19 +1980,19 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.25</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>0.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.75</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.9</v>
       </c>
     </row>
@@ -2087,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2199,22 +2238,22 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:8">
